--- a/テスト項目/サーバ(Yolo).xlsx
+++ b/テスト項目/サーバ(Yolo).xlsx
@@ -202,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -210,13 +210,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -502,7 +518,7 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -511,54 +527,96 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B8" t="s">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト項目/サーバ(Yolo).xlsx
+++ b/テスト項目/サーバ(Yolo).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -170,6 +170,33 @@
     </rPh>
     <rPh sb="42" eb="43">
       <t>カエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>△</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>段原</t>
+    <rPh sb="0" eb="2">
+      <t>ダンバラ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -229,12 +256,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -518,12 +546,13 @@
   <dimension ref="A2:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="52.125" customWidth="1"/>
+    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -554,9 +583,15 @@
         <v>6</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
@@ -566,9 +601,15 @@
         <v>7</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
@@ -578,9 +619,15 @@
         <v>10</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
@@ -590,9 +637,15 @@
         <v>11</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
@@ -602,9 +655,15 @@
         <v>8</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
@@ -614,9 +673,15 @@
         <v>9</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43823</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/テスト項目/サーバ(Yolo).xlsx
+++ b/テスト項目/サーバ(Yolo).xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2295C96A-521A-4675-8E13-D076C05463B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -75,13 +76,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Windows10でYoloがPythonで実行できる</t>
-    <rPh sb="22" eb="24">
-      <t>ジッコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>任意の学習データを学習させバーコード専用の識別機を作る</t>
     <rPh sb="0" eb="2">
       <t>ニンイ</t>
@@ -126,32 +120,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カメラから40cmの距離でもYologが検知率60%以上を達成</t>
-    <rPh sb="10" eb="12">
-      <t>キョリ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ケンチ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>リツ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>タッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルトのYoloのpythonプログラムをクラスに変更する</t>
-    <rPh sb="27" eb="29">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>OpenCV形式の画像をyoloに投げたらオブジェクト名と座標がついになったリストが返ってくる</t>
     <rPh sb="6" eb="8">
       <t>ケイシキ</t>
@@ -186,17 +154,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>〇</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>△</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>段原</t>
     <rPh sb="0" eb="2">
       <t>ダンバラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Yoloをpythonプログラムで実行できるように修正</t>
+    <rPh sb="17" eb="19">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>YoloをWindows10環境のGPUで動作できるようにコンパイル</t>
+    <rPh sb="14" eb="16">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ドウサ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -204,7 +184,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -542,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -580,35 +560,29 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="3">
         <v>43823</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
@@ -616,17 +590,17 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" s="3">
         <v>43823</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
@@ -634,17 +608,17 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3">
         <v>43823</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -652,35 +626,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E7" s="3">
         <v>43823</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/テスト項目/サーバ(Yolo).xlsx
+++ b/テスト項目/サーバ(Yolo).xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2295C96A-521A-4675-8E13-D076C05463B1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>テスト</t>
     <phoneticPr fontId="1"/>
@@ -32,16 +31,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>操作手順</t>
-    <rPh sb="0" eb="2">
-      <t>ソウサ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>テジュン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -184,7 +173,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -236,13 +228,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -522,20 +515,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="52.125" customWidth="1"/>
-    <col min="5" max="5" width="9.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,92 +545,90 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4">
+        <v>44189</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
         <v>43823</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
         <v>43823</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
+      <c r="E5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43823</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="3">
-        <v>43823</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
